--- a/Data cleaned.xlsx
+++ b/Data cleaned.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e804b3765b28c738/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e804b3765b28c738/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33DB73AF-2E48-41CF-BD39-B20E09EB73A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{33DB73AF-2E48-41CF-BD39-B20E09EB73A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8E5491-344D-45A3-B323-D9C8F82DADB8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0C2E0A00-99C8-4AAD-82EA-B43864C46F7F}"/>
   </bookViews>
@@ -197,7 +197,23 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -208,6 +224,31 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{67674A6C-EB45-4E28-B5E3-AD9E7BFE742B}" name="Table1" displayName="Table1" ref="A1:N955" totalsRowShown="0">
+  <autoFilter ref="A1:N955" xr:uid="{67674A6C-EB45-4E28-B5E3-AD9E7BFE742B}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{4743745F-C2AB-4C5A-B4D6-26AC59A653A2}" name="id"/>
+    <tableColumn id="2" xr3:uid="{B582E2E8-E743-4ECF-8E4F-102A4CA67193}" name="martial_status "/>
+    <tableColumn id="3" xr3:uid="{1AED6A0F-7C7D-45C4-BDDD-A293441DB678}" name="gender "/>
+    <tableColumn id="4" xr3:uid="{AD2CC340-3100-4E9E-BFF1-E7730F5F6EA4}" name="income" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{28EE72CC-0533-41ED-ACC6-5F2E3B59D838}" name="children" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{0205806E-61CE-42E4-A798-555142EC2EE8}" name="education"/>
+    <tableColumn id="7" xr3:uid="{D43D1A71-2A68-44C5-8455-94C4AA701830}" name="occupation"/>
+    <tableColumn id="8" xr3:uid="{BAA5AF10-D410-4133-B70D-D0854EADA72B}" name="home_owner"/>
+    <tableColumn id="9" xr3:uid="{BF048365-2AB4-4BD2-8AD0-3840F6124460}" name="cars" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{2BBC4BA6-64C1-4017-9221-BF25C68AD0DF}" name="commute_distance"/>
+    <tableColumn id="11" xr3:uid="{EFA40AFC-B177-4525-A15B-0FE6C12CA667}" name="region"/>
+    <tableColumn id="12" xr3:uid="{B5C50B1E-3667-4AF5-AF7E-A34CA46B55B3}" name="age" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{339936D7-3B85-4754-962B-91D9D0317CC5}" name="age_category" dataDxfId="0">
+      <calculatedColumnFormula>IF(L2&gt;54,"Old (more than 54)",IF(L2&gt;27,"Middle Age (more than 27)",IF(L2&lt;=27,"Young (less than 27)")))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{13B895A5-4B29-4845-9FDC-2793EB5E9B45}" name="purchased_electric_car"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -509,21 +550,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEE347C-9735-4251-998E-352D24884ADD}">
   <dimension ref="A1:O955"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" topLeftCell="A480" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="30.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
     <col min="4" max="4" width="12.26953125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="2"/>
+    <col min="5" max="5" width="9.54296875" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="8.7265625" style="2"/>
-    <col min="12" max="13" width="8.7265625" style="2"/>
-    <col min="14" max="14" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.81640625" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="2"/>
+    <col min="13" max="13" width="13.90625" style="2" customWidth="1"/>
+    <col min="14" max="14" width="22.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -43503,5 +43547,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>